--- a/biology/Botanique/Delesserioideae/Delesserioideae.xlsx
+++ b/biology/Botanique/Delesserioideae/Delesserioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Delesserioideae sont une sous-famille d’algues rouges de la famille des Delesseriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019) :
 tribu des Apoglosseae Showe M.Lin, S.Fredericq &amp; M.H.Hommersand
 genre Apoglossocolax Maggs &amp; Hommersand
 genre Apoglossum (J.Agardh) J.Agardh
@@ -586,7 +600,7 @@
 genre Zellera G.Martens
 genre Zinovaea M.J.Wynne
 tribu des Zinovaeeae M.J.Wynne
-Selon World Register of Marine Species                               (5 février 2019)[2] :
+Selon World Register of Marine Species                               (5 février 2019) :
 tribu des Apoglosseae
 tribu des Botryocarpeae
 tribu des Caloglosseae M.J.Wynne, 2001
@@ -598,7 +612,7 @@
 tribu des Membranoptereae M.J.Wynne, 2001
 tribu des Papenfussieae
 tribu des Wynneophycuseae S.Y.Jeong, B.Y.Won, Fredericq &amp; T.O.Cho, 2016
-Selon World Register of Marine Species                               (5 février 2019)[2] :
+Selon World Register of Marine Species                               (5 février 2019) :
 genre Apoglossocolax Maggs &amp; Hommersand, 1993
 genre Apoglossum J.Agardh, 1898
 genre Bartoniella Kylin, 1924
